--- a/data/trans_bre/IP19C07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C07-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 18,1</t>
+          <t>-1,04; 17,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 9,32</t>
+          <t>-8,76; 9,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 8,83</t>
+          <t>-12,69; 7,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,98</t>
+          <t>0,0; 15,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,14; 1053,33</t>
+          <t>-34,34; 1379,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,32; 304,56</t>
+          <t>-74,8; 408,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,38</t>
+          <t>-4,07; 4,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,56</t>
+          <t>-5,04; 3,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 6,86</t>
+          <t>0,23; 6,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,38</t>
+          <t>-2,78; 4,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 51,34</t>
+          <t>-33,94; 63,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,06; 61,01</t>
+          <t>-49,1; 54,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 271,73</t>
+          <t>0,26; 293,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 124,58</t>
+          <t>-39,4; 102,99</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 13,66</t>
+          <t>-5,68; 14,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 8,32</t>
+          <t>-10,92; 9,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 9,33</t>
+          <t>-6,3; 9,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 11,58</t>
+          <t>-2,16; 12,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 166,81</t>
+          <t>-37,28; 166,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,32; 66,52</t>
+          <t>-47,96; 75,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,07; 140,81</t>
+          <t>-46,01; 149,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 235,47</t>
+          <t>-23,77; 234,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,18</t>
+          <t>-1,8; 5,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,31</t>
+          <t>-3,58; 3,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,84</t>
+          <t>-0,71; 6,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,19</t>
+          <t>-1,23; 4,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 72,86</t>
+          <t>-15,55; 70,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 42,93</t>
+          <t>-30,14; 44,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 134,41</t>
+          <t>-10,47; 135,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 119,78</t>
+          <t>-19,56; 101,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C07-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 17,43</t>
+          <t>0,21; 19,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 9,26</t>
+          <t>-8,92; 10,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 7,62</t>
+          <t>-10,82; 8,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,13</t>
+          <t>0,0; 12,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 1379,76</t>
+          <t>-34,3; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-74,8; 408,84</t>
+          <t>-78,45; 388,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>16,42%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 4,8</t>
+          <t>-3,59; 4,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 3,06</t>
+          <t>-4,54; 3,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 6,98</t>
+          <t>0,04; 6,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 4,2</t>
+          <t>-2,51; 4,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 63,78</t>
+          <t>-30,31; 64,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,1; 54,04</t>
+          <t>-46,79; 64,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 293,1</t>
+          <t>-0,57; 282,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 102,99</t>
+          <t>-35,52; 138,5</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,86%</t>
+          <t>64,87%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 14,09</t>
+          <t>-5,62; 14,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 9,11</t>
+          <t>-10,62; 9,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 9,43</t>
+          <t>-6,27; 9,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 12,06</t>
+          <t>-1,94; 11,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 166,2</t>
+          <t>-36,02; 171,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 75,16</t>
+          <t>-47,1; 75,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,01; 149,55</t>
+          <t>-49,7; 143,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 234,52</t>
+          <t>-21,19; 238,93</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>34,69%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 5,83</t>
+          <t>-1,57; 5,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,46</t>
+          <t>-3,53; 3,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,03</t>
+          <t>-0,68; 5,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,93</t>
+          <t>-0,89; 5,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 70,09</t>
+          <t>-13,72; 74,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 44,17</t>
+          <t>-31,73; 41,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 135,46</t>
+          <t>-12,12; 130,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 101,81</t>
+          <t>-15,36; 119,51</t>
         </is>
       </c>
     </row>
